--- a/clean_sheets.xlsx
+++ b/clean_sheets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Google Drive\Art\Python\fpl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\fpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A5B525-E20F-4ECC-B44B-E52E8DA364EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F174B38-74BC-44FE-8446-23771D3D474C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>team</t>
   </si>
   <si>
-    <t>clean_sheets_17_18</t>
-  </si>
-  <si>
     <t>clean_sheets</t>
   </si>
   <si>
@@ -149,16 +148,16 @@
     <t>&gt;99%</t>
   </si>
   <si>
-    <t>clean_sheets_18_19</t>
-  </si>
-  <si>
     <t>Aston Villa</t>
   </si>
   <si>
-    <t>Norwich</t>
-  </si>
-  <si>
     <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>West Brom</t>
   </si>
 </sst>
 </file>
@@ -922,1029 +921,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>clean_sheets!$E$2:$E$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>clean_sheets!$C$2:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E5F1-4139-BC50-7AA1CFDB161D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="466895264"/>
-        <c:axId val="466896576"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="466895264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="466896576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="466896576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="466895264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2CA97B-14B4-438C-989F-3A079FADE55B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2244,19 +1220,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2264,522 +1241,344 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <f>ROUND(VLOOKUP(C2,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="24">
+        <f>B2/38</f>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <f>ROUND(VLOOKUP(C3,lookup!$A$1:$C$12,3,0),0)</f>
         <v>19</v>
       </c>
-      <c r="C2">
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="24">
+        <f t="shared" ref="D3:D21" si="0">B3/38</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f>ROUND(VLOOKUP(C4,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="24">
+        <f t="shared" si="0"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <f>ROUND(VLOOKUP(C5,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="24">
+        <f t="shared" si="0"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <f>ROUND(VLOOKUP(E2,lookup!$A$1:$C$12,3,0),0)</f>
+      <c r="B6">
+        <f>ROUND(VLOOKUP(C6,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="24">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f>ROUND(VLOOKUP(C7,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <f>ROUND(VLOOKUP(C8,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="24">
+        <f t="shared" si="0"/>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <f>ROUND(VLOOKUP(C9,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="24">
+        <f t="shared" si="0"/>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <f>ROUND(VLOOKUP(C10,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="24">
+        <f t="shared" si="0"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <f>ROUND(VLOOKUP(C11,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="24">
+        <f t="shared" si="0"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <f>ROUND(VLOOKUP(C12,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="24">
+        <f t="shared" si="0"/>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="B13">
+        <f>ROUND(VLOOKUP(C13,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <f>ROUND(VLOOKUP(C14,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>0.9</v>
+      </c>
+      <c r="D14" s="24">
+        <f t="shared" si="0"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <f>ROUND(VLOOKUP(C15,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>0.9</v>
+      </c>
+      <c r="D15" s="24">
+        <f t="shared" si="0"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <f>ROUND(VLOOKUP(C16,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="24">
+        <f t="shared" si="0"/>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <f>ROUND(VLOOKUP(C17,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24">
+        <f t="shared" si="0"/>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <f>ROUND(VLOOKUP(C18,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>15</v>
+      </c>
+      <c r="C18">
         <v>0.5</v>
       </c>
-      <c r="F2" s="24">
-        <f>D2/38</f>
+      <c r="D18" s="24">
+        <f t="shared" si="0"/>
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-      <c r="C3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="D3">
-        <f>ROUND(VLOOKUP(E3,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="24">
-        <f t="shared" ref="F3:F21" si="0">D3/38</f>
-        <v>0.47368421052631576</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <f>ROUND(VLOOKUP(E4,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="24">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B19">
+        <f>ROUND(VLOOKUP(C19,lookup!$A$1:$C$12,3,0),0)</f>
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>0.9</v>
+      </c>
+      <c r="D19" s="24">
+        <f t="shared" si="0"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <f>ROUND(VLOOKUP(C20,lookup!$A$1:$C$12,3,0),0)</f>
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <f>ROUND(VLOOKUP(E5,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="24">
-        <f t="shared" si="0"/>
-        <v>0.39473684210526316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <f>ROUND(VLOOKUP(E6,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>0.6</v>
-      </c>
-      <c r="F6" s="24">
-        <f t="shared" si="0"/>
-        <v>0.34210526315789475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <f>ROUND(VLOOKUP(E7,lookup!$A$1:$C$12,3,0),0)</f>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24">
+        <f t="shared" si="0"/>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <f>ROUND(VLOOKUP(C21,lookup!$A$1:$C$12,3,0),0)</f>
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="C21">
         <v>0.7</v>
       </c>
-      <c r="F7" s="24">
+      <c r="D21" s="24">
         <f t="shared" si="0"/>
         <v>0.31578947368421051</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <f>ROUND(VLOOKUP(E8,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0.8</v>
-      </c>
-      <c r="F8" s="24">
-        <f t="shared" si="0"/>
-        <v>0.26315789473684209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <f>ROUND(VLOOKUP(E9,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0.8</v>
-      </c>
-      <c r="F9" s="24">
-        <f t="shared" si="0"/>
-        <v>0.26315789473684209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <f>ROUND(VLOOKUP(E10,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>0.6</v>
-      </c>
-      <c r="F10" s="24">
-        <f t="shared" si="0"/>
-        <v>0.34210526315789475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <f>ROUND(VLOOKUP(E11,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="24">
-        <f t="shared" si="0"/>
-        <v>0.18421052631578946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <f>ROUND(VLOOKUP(E12,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>0.8</v>
-      </c>
-      <c r="F12" s="24">
-        <f t="shared" si="0"/>
-        <v>0.26315789473684209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <f>ROUND(VLOOKUP(E13,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0.6</v>
-      </c>
-      <c r="F13" s="24">
-        <f t="shared" si="0"/>
-        <v>0.34210526315789475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <f>ROUND(VLOOKUP(E14,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="24">
-        <f t="shared" si="0"/>
-        <v>0.18421052631578946</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <f>ROUND(VLOOKUP(E15,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>0.8</v>
-      </c>
-      <c r="F15" s="24">
-        <f t="shared" si="0"/>
-        <v>0.26315789473684209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <f>ROUND(VLOOKUP(E16,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>0.8</v>
-      </c>
-      <c r="F16" s="24">
-        <f t="shared" si="0"/>
-        <v>0.26315789473684209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <f>ROUND(VLOOKUP(E17,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="24">
-        <f t="shared" si="0"/>
-        <v>0.18421052631578946</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <f>ROUND(VLOOKUP(E18,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="24">
-        <f t="shared" si="0"/>
-        <v>0.39473684210526316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19">
-        <v>9.9</v>
-      </c>
-      <c r="D19">
-        <f>ROUND(VLOOKUP(E19,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>1.2</v>
-      </c>
-      <c r="F19" s="24">
-        <f t="shared" si="0"/>
-        <v>0.10526315789473684</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20">
-        <v>10.7</v>
-      </c>
-      <c r="D20">
-        <f>ROUND(VLOOKUP(E20,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="24">
-        <f t="shared" si="0"/>
-        <v>0.18421052631578946</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
-        <v>17.3</v>
-      </c>
-      <c r="D21">
-        <f>ROUND(VLOOKUP(E21,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>0.6</v>
-      </c>
-      <c r="F21" s="24">
-        <f t="shared" si="0"/>
-        <v>0.34210526315789475</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <f>VLOOKUP(E25,lookup!$A$1:$B$11,2,0)</f>
-        <v>8</v>
-      </c>
-      <c r="E25">
-        <f>VLOOKUP(A25,Sheet2!A:D,4,0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="F25" s="24">
-        <f t="shared" ref="F25" si="1">D25/38</f>
-        <v>0.21052631578947367</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <f>VLOOKUP(E26,lookup!$A$1:$B$11,2,0)</f>
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <f>VLOOKUP(A26,Sheet2!A:D,4,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="24">
-        <f>D26/38</f>
-        <v>0.18421052631578946</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <f>VLOOKUP(E27,lookup!$A$1:$B$11,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="E27">
-        <f>VLOOKUP(A27,Sheet2!A:D,4,0)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F27" s="24">
-        <f>D27/38</f>
-        <v>0.13157894736842105</v>
-      </c>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2788,7 +1587,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2799,13 +1598,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2961,42 +1760,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>34</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>94.9</v>
@@ -3023,10 +1822,10 @@
         <v>95</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="L2" s="5">
         <v>0.74</v>
@@ -3034,7 +1833,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>90.6</v>
@@ -3061,7 +1860,7 @@
         <v>86</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="6">
         <v>0.95</v>
@@ -3072,7 +1871,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>87.2</v>
@@ -3099,7 +1898,7 @@
         <v>78</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" s="8">
         <v>0.77</v>
@@ -3110,7 +1909,7 @@
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>84.6</v>
@@ -3137,7 +1936,7 @@
         <v>76</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="10">
         <v>0.68</v>
@@ -3148,7 +1947,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>80.3</v>
@@ -3175,18 +1974,18 @@
         <v>69</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" s="12">
         <v>0.36</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>79.400000000000006</v>
@@ -3213,18 +2012,18 @@
         <v>64</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="13">
         <v>0.18</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>70.099999999999994</v>
@@ -3251,18 +2050,18 @@
         <v>52</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="14">
         <v>0.02</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>70.599999999999994</v>
@@ -3295,12 +2094,12 @@
         <v>0.02</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
         <v>68</v>
@@ -3333,12 +2132,12 @@
         <v>0.01</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>71.400000000000006</v>
@@ -3371,12 +2170,12 @@
         <v>0.01</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>69.8</v>
@@ -3406,15 +2205,15 @@
         <v>0.03</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>67.2</v>
@@ -3444,15 +2243,15 @@
         <v>0.09</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
         <v>60.2</v>
@@ -3482,15 +2281,15 @@
         <v>0.15</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>67.8</v>
@@ -3520,15 +2319,15 @@
         <v>0.19</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>66.099999999999994</v>
@@ -3558,15 +2357,15 @@
         <v>0.23</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>65.099999999999994</v>
@@ -3596,15 +2395,15 @@
         <v>0.22</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>59.4</v>
@@ -3634,15 +2433,15 @@
         <v>0.42</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2">
         <v>56.6</v>
@@ -3672,15 +2471,15 @@
         <v>0.48</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="2">
         <v>59.3</v>
@@ -3710,15 +2509,15 @@
         <v>0.54</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>57.7</v>
@@ -3748,10 +2547,10 @@
         <v>0.61</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/clean_sheets.xlsx
+++ b/clean_sheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\fpl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\fpl-optimiser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F174B38-74BC-44FE-8446-23771D3D474C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFD5C7A-EB6E-4985-B9B4-AF66B9B78856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1836" yWindow="888" windowWidth="28800" windowHeight="15276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clean_sheets" sheetId="1" r:id="rId1"/>
@@ -151,13 +151,13 @@
     <t>Aston Villa</t>
   </si>
   <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
     <t>Leeds</t>
   </si>
   <si>
-    <t>West Brom</t>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Brentford</t>
   </si>
 </sst>
 </file>
@@ -1223,17 +1223,17 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1247,23 +1247,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <f>ROUND(VLOOKUP(C2,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="24">
         <f>B2/38</f>
-        <v>0.42105263157894735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1295,87 +1295,87 @@
         <v>0.47368421052631576</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <f>ROUND(VLOOKUP(C5,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="24">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="D5" s="24">
-        <f t="shared" si="0"/>
-        <v>0.39473684210526316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <f>ROUND(VLOOKUP(C6,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="24">
         <f t="shared" si="0"/>
-        <v>0.34210526315789475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f>ROUND(VLOOKUP(C7,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="D7" s="24">
         <f t="shared" si="0"/>
-        <v>0.31578947368421051</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <f>ROUND(VLOOKUP(C8,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D8" s="24">
         <f t="shared" si="0"/>
-        <v>0.26315789473684209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
         <f>ROUND(VLOOKUP(C9,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="24">
         <f t="shared" si="0"/>
-        <v>0.26315789473684209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1391,39 +1391,39 @@
         <v>0.31578947368421051</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
         <f>ROUND(VLOOKUP(C11,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D11" s="24">
         <f t="shared" si="0"/>
-        <v>0.23684210526315788</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
         <f>ROUND(VLOOKUP(C12,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D12" s="24">
         <f t="shared" si="0"/>
-        <v>0.26315789473684209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>0.34210526315789475</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1455,44 +1455,43 @@
         <v>0.23684210526315788</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15">
         <f>ROUND(VLOOKUP(C15,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D15" s="24">
         <f t="shared" si="0"/>
-        <v>0.23684210526315788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16">
         <f>ROUND(VLOOKUP(C16,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D16" s="24">
         <f t="shared" si="0"/>
-        <v>0.26315789473684209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17">
-        <f>ROUND(VLOOKUP(C17,lookup!$A$1:$C$12,3,0),0)</f>
         <v>7</v>
       </c>
       <c r="C17">
@@ -1503,28 +1502,27 @@
         <v>0.18421052631578946</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18">
         <f>ROUND(VLOOKUP(C18,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D18" s="24">
         <f t="shared" si="0"/>
-        <v>0.39473684210526316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <f>ROUND(VLOOKUP(C19,lookup!$A$1:$C$12,3,0),0)</f>
         <v>9</v>
       </c>
       <c r="C19">
@@ -1535,46 +1533,45 @@
         <v>0.23684210526315788</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <f>ROUND(VLOOKUP(C20,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D20" s="24">
         <f t="shared" si="0"/>
-        <v>0.18421052631578946</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21">
-        <f>ROUND(VLOOKUP(C21,lookup!$A$1:$C$12,3,0),0)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D21" s="24">
         <f t="shared" si="0"/>
-        <v>0.31578947368421051</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D25" s="24"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D26" s="24"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D27" s="24"/>
     </row>
   </sheetData>
@@ -1587,16 +1584,16 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1607,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.2</v>
       </c>
@@ -1619,7 +1616,7 @@
         <v>19.276199999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.3</v>
       </c>
@@ -1631,7 +1628,7 @@
         <v>17.795300000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.4</v>
       </c>
@@ -1643,7 +1640,7 @@
         <v>16.314399999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -1655,7 +1652,7 @@
         <v>14.833500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.6</v>
       </c>
@@ -1667,7 +1664,7 @@
         <v>13.352600000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.7</v>
       </c>
@@ -1679,7 +1676,7 @@
         <v>11.871700000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.8</v>
       </c>
@@ -1691,7 +1688,7 @@
         <v>10.390799999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.9</v>
       </c>
@@ -1703,7 +1700,7 @@
         <v>8.9099000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1715,7 +1712,7 @@
         <v>7.4290000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.1000000000000001</v>
       </c>
@@ -1727,7 +1724,7 @@
         <v>5.9481000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.2</v>
       </c>
@@ -1750,12 +1747,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1793,7 +1790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1831,7 +1828,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1869,7 +1866,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1907,7 +1904,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1945,7 +1942,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1983,7 +1980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -2021,7 +2018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -2059,7 +2056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -2097,7 +2094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2135,7 +2132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2173,7 +2170,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2211,7 +2208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2249,7 +2246,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -2287,7 +2284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2325,7 +2322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -2363,7 +2360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2401,7 +2398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2439,7 +2436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2477,7 +2474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -2515,7 +2512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
